--- a/NatixisTheGame Mapping_V2.xlsx
+++ b/NatixisTheGame Mapping_V2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GaryDesigns\NatixisTheGame\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3F38A016-9565-40CC-9FA0-8FBAD809345E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="96" windowWidth="23256" windowHeight="13116" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Characters" sheetId="1" r:id="rId1"/>
@@ -29,13 +23,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Purchase Items'!$A$1:$H$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Resources and Tokens'!$A$46:$F$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Scenario 1'!$A$11:$M$25</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="834">
   <si>
     <t>Natixis the Game Resources Map</t>
   </si>
@@ -2528,12 +2523,21 @@
   </si>
   <si>
     <t>compliance headcount</t>
+  </si>
+  <si>
+    <t>You must have purchased the Phone Item and hire 15 full time Employees by the 10th, 11th or 12th month.  Employee tokens can only be placed before the Action phase, from the top of the org chart down.  You can hire any number of Employees each month, but no more than one Org Chart colum per round.  Succeed in this and you win!</t>
+  </si>
+  <si>
+    <t>Hiring the employees</t>
+  </si>
+  <si>
+    <t>The Natixis International team requires 15 employees to be successful.  You can only add employees to the Org Chart before the Action Phase of each round (with the exception of the (Cloud Implementation and Networking Event).  The employees must be hired in stages from top to bottom.  You can hire any amount of employees into the Org chart each round, but only in one level per round.  (first time - 1 employee, second time max, 2 employees, etc.)  The employees used in the Org chart cannot be taken back and used for other Actions.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3090,12 +3094,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="3" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3106,8 +3110,8 @@
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28"/>
-    <cellStyle name="Neutral 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Neutral 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Neutral 2" xfId="10"/>
+    <cellStyle name="Neutral 3" xfId="9"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="6" builtinId="10"/>
   </cellStyles>
@@ -3144,7 +3148,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E33D247-0A51-479B-8834-4059B98A1310}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E33D247-0A51-479B-8834-4059B98A1310}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3194,7 +3198,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{757CCED2-7925-43C4-82A6-31A04CB90426}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{757CCED2-7925-43C4-82A6-31A04CB90426}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3244,7 +3248,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{066D3E23-17FC-45AB-890E-BB8C9240D1CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{066D3E23-17FC-45AB-890E-BB8C9240D1CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3294,7 +3298,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E689600-BB59-46EA-B4E9-DD57154FA1DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E689600-BB59-46EA-B4E9-DD57154FA1DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3344,7 +3348,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F60801-A267-4A5F-B65F-F127639EED1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99F60801-A267-4A5F-B65F-F127639EED1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3394,7 +3398,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49BF8D08-FE04-4E4B-8ED7-885DFFBE1FF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49BF8D08-FE04-4E4B-8ED7-885DFFBE1FF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3444,7 +3448,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CF13D1-C226-41C1-8CD6-37E51DD57C33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27CF13D1-C226-41C1-8CD6-37E51DD57C33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3494,7 +3498,7 @@
         <xdr:cNvPr id="23" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEF8922-C98B-4CAD-8395-B99BA97A8A8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BEF8922-C98B-4CAD-8395-B99BA97A8A8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3544,7 +3548,7 @@
         <xdr:cNvPr id="25" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F34BC3-B8CC-4F46-B5DD-FBBC0CEFE62F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55F34BC3-B8CC-4F46-B5DD-FBBC0CEFE62F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3594,7 +3598,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F37BA31-D9FD-4F1D-AD77-4625D91354CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F37BA31-D9FD-4F1D-AD77-4625D91354CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3644,7 +3648,7 @@
         <xdr:cNvPr id="33" name="Picture 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98EACF47-98C8-4182-B0CF-B4877D7540B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98EACF47-98C8-4182-B0CF-B4877D7540B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3694,7 +3698,7 @@
         <xdr:cNvPr id="35" name="Picture 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04982DB5-0C55-4AC6-823B-939DC9F914D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04982DB5-0C55-4AC6-823B-939DC9F914D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3744,7 +3748,7 @@
         <xdr:cNvPr id="37" name="Picture 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D9F073-77B6-4578-BA18-5548906148E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30D9F073-77B6-4578-BA18-5548906148E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3794,7 +3798,7 @@
         <xdr:cNvPr id="41" name="Picture 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E5920D1-EDF2-4845-A1B7-CE71E3C968CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E5920D1-EDF2-4845-A1B7-CE71E3C968CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3844,7 +3848,7 @@
         <xdr:cNvPr id="43" name="Picture 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41152519-5ADD-4781-8E4F-4A1F10F36C8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41152519-5ADD-4781-8E4F-4A1F10F36C8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3894,7 +3898,7 @@
         <xdr:cNvPr id="45" name="Picture 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5161DE-7367-4164-9085-668A95484E99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA5161DE-7367-4164-9085-668A95484E99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3944,7 +3948,7 @@
         <xdr:cNvPr id="49" name="Picture 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A0E77B-9D08-416C-8EEA-517A7E1F9DF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5A0E77B-9D08-416C-8EEA-517A7E1F9DF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3994,7 +3998,7 @@
         <xdr:cNvPr id="51" name="Picture 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4FAE1E-AB3B-4FEF-A5C0-908AD4CDA6F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C4FAE1E-AB3B-4FEF-A5C0-908AD4CDA6F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4044,7 +4048,7 @@
         <xdr:cNvPr id="53" name="Picture 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B2C1E3-82FA-48A0-804E-2269DAAA26FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17B2C1E3-82FA-48A0-804E-2269DAAA26FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4094,7 +4098,7 @@
         <xdr:cNvPr id="55" name="Picture 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C7BF8B-61CC-4878-B371-62A6079DCE29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47C7BF8B-61CC-4878-B371-62A6079DCE29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4144,7 +4148,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BE28432-E068-4CDA-ABBB-2E0E16F0416A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BE28432-E068-4CDA-ABBB-2E0E16F0416A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4194,7 +4198,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C093B2F-AF85-4148-BF04-B30B8A71FDEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C093B2F-AF85-4148-BF04-B30B8A71FDEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4244,7 +4248,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E011EFF-2D15-4F3C-B0BC-E4D42864BF3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E011EFF-2D15-4F3C-B0BC-E4D42864BF3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4294,7 +4298,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C98A2E0-8D5B-4D29-B65B-125455577C54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C98A2E0-8D5B-4D29-B65B-125455577C54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4344,7 +4348,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960B0C40-292C-4FFE-B4F9-4F29E1DE9EDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{960B0C40-292C-4FFE-B4F9-4F29E1DE9EDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4394,7 +4398,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C838A2B0-A212-429A-A8B2-02A626428CD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C838A2B0-A212-429A-A8B2-02A626428CD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4444,7 +4448,7 @@
         <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F04D478-899E-4120-AFD7-3332E6309A5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F04D478-899E-4120-AFD7-3332E6309A5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4494,7 +4498,7 @@
         <xdr:cNvPr id="26" name="Picture 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D250F1B2-F39F-4506-9F14-B99E8C37C50A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D250F1B2-F39F-4506-9F14-B99E8C37C50A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4544,7 +4548,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729D7BC9-5466-435B-9F80-D9ACDA53160F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{729D7BC9-5466-435B-9F80-D9ACDA53160F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4594,7 +4598,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D15121-1B4C-4FD8-B950-A7B11875017E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14D15121-1B4C-4FD8-B950-A7B11875017E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4644,7 +4648,7 @@
         <xdr:cNvPr id="24" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D6C4E6-1008-46C9-A294-CE90B0A4222B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85D6C4E6-1008-46C9-A294-CE90B0A4222B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4694,7 +4698,7 @@
         <xdr:cNvPr id="29" name="Picture 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE80C82-2441-4FC4-A7D9-17A65809B7C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BE80C82-2441-4FC4-A7D9-17A65809B7C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4744,7 +4748,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA274A5E-32D6-4B46-9AB5-5709B5E063BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA274A5E-32D6-4B46-9AB5-5709B5E063BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4794,7 +4798,7 @@
         <xdr:cNvPr id="27" name="Picture 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEB53CC0-683F-44A0-88CA-91E963CD9DE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEB53CC0-683F-44A0-88CA-91E963CD9DE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4844,7 +4848,7 @@
         <xdr:cNvPr id="32" name="Picture 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF7E5321-D4E9-4953-8EF1-1030EB39F21D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF7E5321-D4E9-4953-8EF1-1030EB39F21D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4894,7 +4898,7 @@
         <xdr:cNvPr id="39" name="Picture 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD865836-8D18-444D-96FA-4183162F529C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD865836-8D18-444D-96FA-4183162F529C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4944,7 +4948,7 @@
         <xdr:cNvPr id="44" name="Picture 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6A8FF9-E0B6-4DA6-B8D5-37904DDBE898}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C6A8FF9-E0B6-4DA6-B8D5-37904DDBE898}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4994,7 +4998,7 @@
         <xdr:cNvPr id="47" name="Picture 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83AB1421-4F95-46AC-B74A-11887F5F5ED4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83AB1421-4F95-46AC-B74A-11887F5F5ED4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5044,7 +5048,7 @@
         <xdr:cNvPr id="50" name="Picture 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F8D338-37F0-4E04-9B37-952BF55CEA08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76F8D338-37F0-4E04-9B37-952BF55CEA08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5094,7 +5098,7 @@
         <xdr:cNvPr id="54" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF59B063-0D07-4725-AD2D-DC6AEDDAA705}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF59B063-0D07-4725-AD2D-DC6AEDDAA705}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5144,7 +5148,7 @@
         <xdr:cNvPr id="58" name="Picture 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FF3DD04-3B45-4E30-9636-D6836D16EFB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6FF3DD04-3B45-4E30-9636-D6836D16EFB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5194,7 +5198,7 @@
         <xdr:cNvPr id="60" name="Picture 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9823467-5065-40A0-AA31-7FF6ED757EF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9823467-5065-40A0-AA31-7FF6ED757EF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5244,7 +5248,7 @@
         <xdr:cNvPr id="62" name="Picture 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99477C3-67BE-4793-9C4C-BDA7646B08E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99477C3-67BE-4793-9C4C-BDA7646B08E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5294,7 +5298,7 @@
         <xdr:cNvPr id="64" name="Picture 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A7E5D8D-606D-42A5-9143-112F7903FAA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A7E5D8D-606D-42A5-9143-112F7903FAA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5344,7 +5348,7 @@
         <xdr:cNvPr id="66" name="Picture 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7059B59-520A-42CD-8E36-BD25AFEFB44B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7059B59-520A-42CD-8E36-BD25AFEFB44B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5394,7 +5398,7 @@
         <xdr:cNvPr id="68" name="Picture 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E983D63-5C29-4775-A77F-CB2D7E10505B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E983D63-5C29-4775-A77F-CB2D7E10505B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5444,7 +5448,7 @@
         <xdr:cNvPr id="70" name="Picture 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABEEEEC4-4CEC-4F16-AC14-86053E71233F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABEEEEC4-4CEC-4F16-AC14-86053E71233F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5494,7 +5498,7 @@
         <xdr:cNvPr id="74" name="Picture 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279B88E0-3CFB-42FB-A4FE-0323F0836794}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{279B88E0-3CFB-42FB-A4FE-0323F0836794}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5544,7 +5548,7 @@
         <xdr:cNvPr id="76" name="Picture 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E8C008-B569-4596-816F-549D3AFAFC5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15E8C008-B569-4596-816F-549D3AFAFC5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5594,7 +5598,7 @@
         <xdr:cNvPr id="78" name="Picture 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A4374C2-AD9C-4DF0-9935-4617853F5111}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A4374C2-AD9C-4DF0-9935-4617853F5111}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5644,7 +5648,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC086456-24EA-4DEA-A718-67A6EFFA786B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC086456-24EA-4DEA-A718-67A6EFFA786B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5694,7 +5698,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6982D606-DDD1-4324-8631-3BA2D9504FC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6982D606-DDD1-4324-8631-3BA2D9504FC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5744,7 +5748,7 @@
         <xdr:cNvPr id="59" name="Picture 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C500C4-5BF3-4A99-8274-B9221C85776D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04C500C4-5BF3-4A99-8274-B9221C85776D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5794,7 +5798,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DF8BBF-96F8-4E9E-9B1F-C458A810B3C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69DF8BBF-96F8-4E9E-9B1F-C458A810B3C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5844,7 +5848,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4A1946B-87D6-42DD-9FF7-6974F42F2271}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4A1946B-87D6-42DD-9FF7-6974F42F2271}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5883,6 +5887,407 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>274320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>897843</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>922020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="274320" y="9098280"/>
+          <a:ext cx="623523" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>945307</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="213360" y="10142220"/>
+          <a:ext cx="731947" cy="701040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952052</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>861060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="205740" y="11231880"/>
+          <a:ext cx="746312" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>898841</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>754380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="12359640"/>
+          <a:ext cx="708341" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>777240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1478280" y="12405360"/>
+          <a:ext cx="624840" cy="624840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>728709</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>792480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1531620" y="11338560"/>
+          <a:ext cx="576309" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>868680</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>746760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1577340" y="10119360"/>
+          <a:ext cx="670560" cy="670560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>944880</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1615440</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>746760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="10119360"/>
+          <a:ext cx="670560" cy="670560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>838200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1546860" y="9044940"/>
+          <a:ext cx="617220" cy="617220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>48</xdr:row>
@@ -5899,7 +6304,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E836E7FB-142B-4501-902C-C83AA83ADF9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E836E7FB-142B-4501-902C-C83AA83ADF9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5949,7 +6354,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D61DDC3F-7DA5-4EA3-8578-0BAE6961F805}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D61DDC3F-7DA5-4EA3-8578-0BAE6961F805}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5999,7 +6404,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C6180B-4B80-4524-B019-CDB183963FCB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28C6180B-4B80-4524-B019-CDB183963FCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6049,7 +6454,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362A489D-4B74-4D32-BDCC-C8807EF037ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{362A489D-4B74-4D32-BDCC-C8807EF037ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6099,7 +6504,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ECFDDE5-10AA-478A-A045-5903A6D9AC98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0ECFDDE5-10AA-478A-A045-5903A6D9AC98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6149,7 +6554,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EF505E-CD0F-4796-9908-D63DABE99580}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5EF505E-CD0F-4796-9908-D63DABE99580}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6199,7 +6604,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D59993-7571-4384-891C-7F0922CE4834}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61D59993-7571-4384-891C-7F0922CE4834}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6249,7 +6654,7 @@
         <xdr:cNvPr id="23" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB7C4877-51A4-4908-AA79-9C538135DEEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB7C4877-51A4-4908-AA79-9C538135DEEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6327,7 +6732,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6360,26 +6765,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6412,23 +6800,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6604,7 +6975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6614,21 +6985,21 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="53.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="36" style="3" customWidth="1"/>
     <col min="9" max="9" width="11" style="3" customWidth="1"/>
-    <col min="10" max="12" width="5.7109375" style="3" customWidth="1"/>
-    <col min="13" max="29" width="5.7109375" customWidth="1"/>
+    <col min="10" max="12" width="5.6640625" style="3" customWidth="1"/>
+    <col min="13" max="29" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6861,206 +7232,206 @@
       </c>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="J16"/>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J17"/>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J18"/>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J19"/>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J20"/>
     </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J21"/>
     </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J22"/>
     </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J23"/>
     </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J24"/>
     </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J25"/>
     </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J26"/>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J27"/>
     </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J28"/>
     </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J29"/>
     </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J30"/>
     </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J31"/>
     </row>
-    <row r="32" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J32"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J33"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J34"/>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J35"/>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J36"/>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J37"/>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J38"/>
     </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J39"/>
     </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J40"/>
     </row>
-    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J41"/>
     </row>
-    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J42"/>
     </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J43"/>
     </row>
-    <row r="44" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J44"/>
     </row>
-    <row r="45" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J45"/>
     </row>
-    <row r="46" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J46"/>
     </row>
-    <row r="47" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J47"/>
     </row>
-    <row r="48" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J48"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
     </row>
-    <row r="116" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
@@ -7073,18 +7444,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="4" width="94.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="4" width="94.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -7239,30 +7610,30 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D214"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A139" workbookViewId="0">
       <selection activeCell="A169" sqref="A169:XFD176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>121</v>
       </c>
@@ -7270,7 +7641,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>120</v>
       </c>
@@ -7278,7 +7649,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="63" t="s">
         <v>114</v>
       </c>
@@ -7286,7 +7657,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
         <v>116</v>
       </c>
@@ -7294,7 +7665,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
         <v>118</v>
       </c>
@@ -7302,7 +7673,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
         <v>115</v>
       </c>
@@ -7310,7 +7681,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
         <v>117</v>
       </c>
@@ -7318,7 +7689,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
         <v>119</v>
       </c>
@@ -7326,17 +7697,17 @@
         <v>605</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="63"/>
       <c r="B10" s="63"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>624</v>
       </c>
       <c r="B11" s="63"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>611</v>
       </c>
@@ -7344,7 +7715,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
         <v>617</v>
       </c>
@@ -7352,7 +7723,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>618</v>
       </c>
@@ -7360,7 +7731,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>614</v>
       </c>
@@ -7368,7 +7739,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
         <v>615</v>
       </c>
@@ -7376,7 +7747,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
         <v>613</v>
       </c>
@@ -7384,7 +7755,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="63" t="s">
         <v>612</v>
       </c>
@@ -7392,7 +7763,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
         <v>621</v>
       </c>
@@ -7400,7 +7771,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
         <v>622</v>
       </c>
@@ -7408,7 +7779,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
         <v>609</v>
       </c>
@@ -7416,7 +7787,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="63" t="s">
         <v>607</v>
       </c>
@@ -7424,7 +7795,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>620</v>
       </c>
@@ -7432,7 +7803,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
         <v>619</v>
       </c>
@@ -7440,7 +7811,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
         <v>610</v>
       </c>
@@ -7448,7 +7819,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
         <v>608</v>
       </c>
@@ -7456,7 +7827,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="63" t="s">
         <v>616</v>
       </c>
@@ -7464,40 +7835,40 @@
         <v>554</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:2" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:2" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="33" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="34" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="35" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="36" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="37" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="38" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="39" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="40" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="41" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="42" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="43" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="44" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="45" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="46" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="47" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="48" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:2" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:2" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:2" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:2" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:2" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:2" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:2" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:2" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="70" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="64" t="s">
         <v>60</v>
       </c>
@@ -7505,7 +7876,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="64" t="s">
         <v>136</v>
       </c>
@@ -7513,7 +7884,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="64" t="s">
         <v>59</v>
       </c>
@@ -7521,7 +7892,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="64" t="s">
         <v>132</v>
       </c>
@@ -7529,7 +7900,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="64" t="s">
         <v>50</v>
       </c>
@@ -7537,7 +7908,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="64" t="s">
         <v>51</v>
       </c>
@@ -7545,7 +7916,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="64" t="s">
         <v>134</v>
       </c>
@@ -7553,7 +7924,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="64" t="s">
         <v>255</v>
       </c>
@@ -7561,7 +7932,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="64" t="s">
         <v>56</v>
       </c>
@@ -7569,7 +7940,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="64" t="s">
         <v>256</v>
       </c>
@@ -7577,7 +7948,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="64" t="s">
         <v>55</v>
       </c>
@@ -7585,7 +7956,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="64" t="s">
         <v>54</v>
       </c>
@@ -7593,7 +7964,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="64" t="s">
         <v>58</v>
       </c>
@@ -7601,7 +7972,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="64" t="s">
         <v>43</v>
       </c>
@@ -7609,7 +7980,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="64" t="s">
         <v>137</v>
       </c>
@@ -7617,7 +7988,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="64" t="s">
         <v>64</v>
       </c>
@@ -7625,7 +7996,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="64" t="s">
         <v>49</v>
       </c>
@@ -7633,7 +8004,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="64" t="s">
         <v>45</v>
       </c>
@@ -7641,7 +8012,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="64" t="s">
         <v>66</v>
       </c>
@@ -7649,7 +8020,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="64" t="s">
         <v>131</v>
       </c>
@@ -7657,7 +8028,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="64" t="s">
         <v>130</v>
       </c>
@@ -7665,7 +8036,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="64" t="s">
         <v>63</v>
       </c>
@@ -7673,7 +8044,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="64" t="s">
         <v>135</v>
       </c>
@@ -7681,7 +8052,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="64" t="s">
         <v>65</v>
       </c>
@@ -7689,7 +8060,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="64" t="s">
         <v>44</v>
       </c>
@@ -7697,7 +8068,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="64" t="s">
         <v>48</v>
       </c>
@@ -7705,7 +8076,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="64" t="s">
         <v>53</v>
       </c>
@@ -7713,7 +8084,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="64" t="s">
         <v>133</v>
       </c>
@@ -7721,7 +8092,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="64" t="s">
         <v>129</v>
       </c>
@@ -7729,7 +8100,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="64" t="s">
         <v>57</v>
       </c>
@@ -7737,7 +8108,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="64" t="s">
         <v>61</v>
       </c>
@@ -7745,7 +8116,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="64" t="s">
         <v>46</v>
       </c>
@@ -7753,32 +8124,32 @@
         <v>636</v>
       </c>
     </row>
-    <row r="93" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:2" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:2" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:2" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:2" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="97" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="98" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="99" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="100" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="101" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="102" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="103" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="104" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="105" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="106" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="107" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="108" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="109" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="110" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="111" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="112" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="70" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="68" t="s">
         <v>728</v>
       </c>
@@ -7790,7 +8161,7 @@
       </c>
       <c r="D114" s="69"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="68" t="s">
         <v>730</v>
       </c>
@@ -7802,7 +8173,7 @@
       </c>
       <c r="D115" s="69"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="68" t="s">
         <v>732</v>
       </c>
@@ -7814,7 +8185,7 @@
       </c>
       <c r="D116" s="69"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="68" t="s">
         <v>734</v>
       </c>
@@ -7826,7 +8197,7 @@
       </c>
       <c r="D117" s="69"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="68" t="s">
         <v>736</v>
       </c>
@@ -7838,7 +8209,7 @@
       </c>
       <c r="D118" s="69"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="68" t="s">
         <v>738</v>
       </c>
@@ -7850,7 +8221,7 @@
       </c>
       <c r="D119" s="69"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="68" t="s">
         <v>740</v>
       </c>
@@ -7862,7 +8233,7 @@
       </c>
       <c r="D120" s="69"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="68" t="s">
         <v>742</v>
       </c>
@@ -7874,7 +8245,7 @@
       </c>
       <c r="D121" s="69"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="68" t="s">
         <v>744</v>
       </c>
@@ -7886,7 +8257,7 @@
       </c>
       <c r="D122" s="69"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="68" t="s">
         <v>746</v>
       </c>
@@ -7898,7 +8269,7 @@
       </c>
       <c r="D123" s="69"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="68" t="s">
         <v>748</v>
       </c>
@@ -7910,7 +8281,7 @@
       </c>
       <c r="D124" s="69"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="68" t="s">
         <v>621</v>
       </c>
@@ -7922,7 +8293,7 @@
       </c>
       <c r="D125" s="69"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="68" t="s">
         <v>751</v>
       </c>
@@ -7934,7 +8305,7 @@
       </c>
       <c r="D126" s="69"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="68" t="s">
         <v>753</v>
       </c>
@@ -7946,7 +8317,7 @@
       </c>
       <c r="D127" s="69"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="68" t="s">
         <v>755</v>
       </c>
@@ -7958,7 +8329,7 @@
       </c>
       <c r="D128" s="69"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="68" t="s">
         <v>757</v>
       </c>
@@ -7970,7 +8341,7 @@
       </c>
       <c r="D129" s="69"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="68" t="s">
         <v>759</v>
       </c>
@@ -7982,7 +8353,7 @@
       </c>
       <c r="D130" s="69"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="68" t="s">
         <v>760</v>
       </c>
@@ -7994,7 +8365,7 @@
       </c>
       <c r="D131" s="69"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="68" t="s">
         <v>762</v>
       </c>
@@ -8006,7 +8377,7 @@
       </c>
       <c r="D132" s="69"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="68" t="s">
         <v>764</v>
       </c>
@@ -8018,7 +8389,7 @@
       </c>
       <c r="D133" s="69"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="68" t="s">
         <v>766</v>
       </c>
@@ -8030,7 +8401,7 @@
       </c>
       <c r="D134" s="69"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="68" t="s">
         <v>768</v>
       </c>
@@ -8042,7 +8413,7 @@
       </c>
       <c r="D135" s="69"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="68" t="s">
         <v>770</v>
       </c>
@@ -8054,7 +8425,7 @@
       </c>
       <c r="D136" s="69"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="68" t="s">
         <v>772</v>
       </c>
@@ -8066,7 +8437,7 @@
       </c>
       <c r="D137" s="69"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="68" t="s">
         <v>774</v>
       </c>
@@ -8078,7 +8449,7 @@
       </c>
       <c r="D138" s="69"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="68" t="s">
         <v>776</v>
       </c>
@@ -8090,7 +8461,7 @@
       </c>
       <c r="D139" s="69"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="68" t="s">
         <v>391</v>
       </c>
@@ -8102,7 +8473,7 @@
       </c>
       <c r="D140" s="69"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="68" t="s">
         <v>409</v>
       </c>
@@ -8114,7 +8485,7 @@
       </c>
       <c r="D141" s="69"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="68" t="s">
         <v>398</v>
       </c>
@@ -8126,7 +8497,7 @@
       </c>
       <c r="D142" s="69"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="68" t="s">
         <v>408</v>
       </c>
@@ -8138,7 +8509,7 @@
       </c>
       <c r="D143" s="69"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="68" t="s">
         <v>415</v>
       </c>
@@ -8150,7 +8521,7 @@
       </c>
       <c r="D144" s="69"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="68" t="s">
         <v>395</v>
       </c>
@@ -8162,7 +8533,7 @@
       </c>
       <c r="D145" s="69"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="68" t="s">
         <v>413</v>
       </c>
@@ -8174,7 +8545,7 @@
       </c>
       <c r="D146" s="69"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="68" t="s">
         <v>401</v>
       </c>
@@ -8186,7 +8557,7 @@
       </c>
       <c r="D147" s="69"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="68" t="s">
         <v>399</v>
       </c>
@@ -8198,7 +8569,7 @@
       </c>
       <c r="D148" s="69"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="68" t="s">
         <v>414</v>
       </c>
@@ -8210,7 +8581,7 @@
       </c>
       <c r="D149" s="69"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="68" t="s">
         <v>402</v>
       </c>
@@ -8222,7 +8593,7 @@
       </c>
       <c r="D150" s="69"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="68" t="s">
         <v>397</v>
       </c>
@@ -8234,7 +8605,7 @@
       </c>
       <c r="D151" s="69"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="68" t="s">
         <v>411</v>
       </c>
@@ -8246,7 +8617,7 @@
       </c>
       <c r="D152" s="69"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="68" t="s">
         <v>407</v>
       </c>
@@ -8258,7 +8629,7 @@
       </c>
       <c r="D153" s="69"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="68" t="s">
         <v>412</v>
       </c>
@@ -8270,7 +8641,7 @@
       </c>
       <c r="D154" s="69"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="68" t="s">
         <v>400</v>
       </c>
@@ -8282,7 +8653,7 @@
       </c>
       <c r="D155" s="69"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="68" t="s">
         <v>390</v>
       </c>
@@ -8294,7 +8665,7 @@
       </c>
       <c r="D156" s="69"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="68" t="s">
         <v>403</v>
       </c>
@@ -8306,7 +8677,7 @@
       </c>
       <c r="D157" s="69"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="68" t="s">
         <v>394</v>
       </c>
@@ -8318,7 +8689,7 @@
       </c>
       <c r="D158" s="69"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="68" t="s">
         <v>396</v>
       </c>
@@ -8330,7 +8701,7 @@
       </c>
       <c r="D159" s="69"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="68" t="s">
         <v>406</v>
       </c>
@@ -8342,7 +8713,7 @@
       </c>
       <c r="D160" s="69"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="68" t="s">
         <v>410</v>
       </c>
@@ -8354,7 +8725,7 @@
       </c>
       <c r="D161" s="69"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="68" t="s">
         <v>404</v>
       </c>
@@ -8366,7 +8737,7 @@
       </c>
       <c r="D162" s="69"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="68" t="s">
         <v>393</v>
       </c>
@@ -8378,7 +8749,7 @@
       </c>
       <c r="D163" s="69"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="68" t="s">
         <v>405</v>
       </c>
@@ -8390,7 +8761,7 @@
       </c>
       <c r="D164" s="69"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="68" t="s">
         <v>392</v>
       </c>
@@ -8402,13 +8773,13 @@
       </c>
       <c r="D165" s="69"/>
     </row>
-    <row r="168" spans="1:4" s="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" s="69" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="67" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="66" t="s">
         <v>637</v>
       </c>
@@ -8416,7 +8787,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="66" t="s">
         <v>639</v>
       </c>
@@ -8424,7 +8795,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="66" t="s">
         <v>641</v>
       </c>
@@ -8432,7 +8803,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="66" t="s">
         <v>643</v>
       </c>
@@ -8440,7 +8811,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="66" t="s">
         <v>645</v>
       </c>
@@ -8448,7 +8819,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="66" t="s">
         <v>647</v>
       </c>
@@ -8456,7 +8827,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="66" t="s">
         <v>649</v>
       </c>
@@ -8464,7 +8835,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="66" t="s">
         <v>618</v>
       </c>
@@ -8472,7 +8843,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="66" t="s">
         <v>652</v>
       </c>
@@ -8480,7 +8851,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="66" t="s">
         <v>654</v>
       </c>
@@ -8488,7 +8859,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="66" t="s">
         <v>656</v>
       </c>
@@ -8496,7 +8867,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="66" t="s">
         <v>658</v>
       </c>
@@ -8504,7 +8875,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="66" t="s">
         <v>660</v>
       </c>
@@ -8512,7 +8883,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="66" t="s">
         <v>662</v>
       </c>
@@ -8520,7 +8891,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="66" t="s">
         <v>664</v>
       </c>
@@ -8528,7 +8899,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="66" t="s">
         <v>666</v>
       </c>
@@ -8536,7 +8907,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="66" t="s">
         <v>668</v>
       </c>
@@ -8544,7 +8915,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="66" t="s">
         <v>670</v>
       </c>
@@ -8552,7 +8923,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="66" t="s">
         <v>672</v>
       </c>
@@ -8560,7 +8931,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="66" t="s">
         <v>674</v>
       </c>
@@ -8568,7 +8939,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="66" t="s">
         <v>676</v>
       </c>
@@ -8576,7 +8947,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="66" t="s">
         <v>678</v>
       </c>
@@ -8584,7 +8955,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="66" t="s">
         <v>680</v>
       </c>
@@ -8592,7 +8963,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="66" t="s">
         <v>682</v>
       </c>
@@ -8600,7 +8971,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="66" t="s">
         <v>684</v>
       </c>
@@ -8608,7 +8979,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="66" t="s">
         <v>686</v>
       </c>
@@ -8616,7 +8987,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="66" t="s">
         <v>688</v>
       </c>
@@ -8624,7 +8995,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="66" t="s">
         <v>690</v>
       </c>
@@ -8632,7 +9003,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="66" t="s">
         <v>692</v>
       </c>
@@ -8640,7 +9011,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="66" t="s">
         <v>694</v>
       </c>
@@ -8648,7 +9019,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="66" t="s">
         <v>696</v>
       </c>
@@ -8656,7 +9027,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="66" t="s">
         <v>698</v>
       </c>
@@ -8664,7 +9035,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="66" t="s">
         <v>700</v>
       </c>
@@ -8672,7 +9043,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="66" t="s">
         <v>702</v>
       </c>
@@ -8680,7 +9051,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="66" t="s">
         <v>704</v>
       </c>
@@ -8688,7 +9059,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="66" t="s">
         <v>706</v>
       </c>
@@ -8696,7 +9067,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="66" t="s">
         <v>708</v>
       </c>
@@ -8704,7 +9075,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="66" t="s">
         <v>710</v>
       </c>
@@ -8712,7 +9083,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="66" t="s">
         <v>712</v>
       </c>
@@ -8720,7 +9091,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="66" t="s">
         <v>714</v>
       </c>
@@ -8728,7 +9099,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="66" t="s">
         <v>716</v>
       </c>
@@ -8736,7 +9107,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="66" t="s">
         <v>718</v>
       </c>
@@ -8744,7 +9115,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="66" t="s">
         <v>720</v>
       </c>
@@ -8752,7 +9123,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="66" t="s">
         <v>722</v>
       </c>
@@ -8760,7 +9131,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="66" t="s">
         <v>724</v>
       </c>
@@ -8776,21 +9147,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="18.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -8813,7 +9184,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="54">
         <v>1</v>
       </c>
@@ -8873,7 +9244,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>4</v>
       </c>
@@ -8913,14 +9284,14 @@
         <v>443</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I11" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
     </row>
@@ -8931,31 +9302,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="1.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="58.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="43" t="s">
         <v>128</v>
       </c>
@@ -8976,7 +9347,7 @@
       </c>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="11" t="s">
         <v>43</v>
@@ -9026,7 +9397,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="62"/>
       <c r="B4" s="11" t="s">
         <v>45</v>
@@ -9048,7 +9419,7 @@
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="11" t="s">
         <v>46</v>
@@ -9070,7 +9441,7 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="11" t="s">
         <v>137</v>
@@ -9078,7 +9449,7 @@
       <c r="C6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="50" t="s">
         <v>500</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -9095,7 +9466,7 @@
       </c>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="62"/>
       <c r="B7" s="11" t="s">
         <v>48</v>
@@ -9139,7 +9510,7 @@
       </c>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="11" t="s">
         <v>136</v>
@@ -9147,7 +9518,7 @@
       <c r="C9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="50" t="s">
         <v>219</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -9164,7 +9535,7 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="11" t="s">
         <v>134</v>
@@ -9172,7 +9543,7 @@
       <c r="C10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="50" t="s">
         <v>473</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -9189,7 +9560,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="11" t="s">
         <v>50</v>
@@ -9211,7 +9582,7 @@
       </c>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
       <c r="B12" s="11" t="s">
         <v>51</v>
@@ -9235,7 +9606,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
       <c r="B13" s="11" t="s">
         <v>133</v>
@@ -9259,7 +9630,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="11" t="s">
         <v>53</v>
@@ -9280,7 +9651,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
       <c r="B15" s="11" t="s">
         <v>54</v>
@@ -9301,7 +9672,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="11" t="s">
         <v>132</v>
@@ -9325,7 +9696,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="11" t="s">
         <v>55</v>
@@ -9349,7 +9720,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
       <c r="B18" s="11" t="s">
         <v>131</v>
@@ -9357,7 +9728,7 @@
       <c r="C18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="50" t="s">
         <v>812</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -9373,7 +9744,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
       <c r="B19" s="11" t="s">
         <v>56</v>
@@ -9423,7 +9794,7 @@
       <c r="C21" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="73" t="s">
         <v>460</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -9461,7 +9832,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="62"/>
       <c r="B23" s="11" t="s">
         <v>135</v>
@@ -9485,7 +9856,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="11" t="s">
         <v>59</v>
@@ -9506,7 +9877,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="62"/>
       <c r="B25" s="11" t="s">
         <v>60</v>
@@ -9548,7 +9919,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="62"/>
       <c r="B27" s="11" t="s">
         <v>130</v>
@@ -9556,7 +9927,7 @@
       <c r="C27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="73" t="s">
         <v>251</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -9572,7 +9943,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="62"/>
       <c r="B28" s="11" t="s">
         <v>63</v>
@@ -9593,7 +9964,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="62"/>
       <c r="B29" s="11" t="s">
         <v>64</v>
@@ -9614,7 +9985,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="62"/>
       <c r="B30" s="11" t="s">
         <v>65</v>
@@ -9635,7 +10006,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="62"/>
       <c r="B31" s="11" t="s">
         <v>66</v>
@@ -9656,7 +10027,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>327</v>
       </c>
@@ -9666,7 +10037,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>262</v>
       </c>
@@ -9683,7 +10054,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>261</v>
       </c>
@@ -9703,7 +10074,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>260</v>
       </c>
@@ -9720,7 +10091,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
         <v>263</v>
       </c>
@@ -9737,7 +10108,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
         <v>259</v>
       </c>
@@ -9777,7 +10148,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
         <v>258</v>
       </c>
@@ -9794,7 +10165,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>257</v>
       </c>
@@ -9814,7 +10185,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="62"/>
       <c r="B41" s="11" t="s">
         <v>256</v>
@@ -9835,7 +10206,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="62"/>
       <c r="B42" s="11" t="s">
         <v>255</v>
@@ -9859,7 +10230,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
         <v>254</v>
       </c>
@@ -9879,7 +10250,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
         <v>253</v>
       </c>
@@ -9902,12 +10273,12 @@
         <v>427</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>142</v>
       </c>
@@ -9915,7 +10286,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>141</v>
       </c>
@@ -9923,7 +10294,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>140</v>
       </c>
@@ -9931,7 +10302,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>138</v>
       </c>
@@ -9939,7 +10310,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>139</v>
       </c>
@@ -9955,23 +10326,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" style="3" customWidth="1"/>
-    <col min="4" max="9" width="20.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="6"/>
+    <col min="4" max="9" width="20.6640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
@@ -9983,7 +10354,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -9991,7 +10362,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -9999,7 +10370,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -10007,7 +10378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -10015,7 +10386,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
         <v>561</v>
       </c>
@@ -10035,7 +10406,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -10043,7 +10414,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -10051,7 +10422,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -10059,7 +10430,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>558</v>
       </c>
@@ -10067,7 +10438,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>559</v>
       </c>
@@ -10075,7 +10446,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>560</v>
       </c>
@@ -10083,8 +10454,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
@@ -10092,7 +10463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
@@ -10100,7 +10471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>487</v>
       </c>
@@ -10108,12 +10479,12 @@
         <v>488</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
@@ -10121,7 +10492,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -10129,7 +10500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -10137,7 +10508,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
@@ -10145,7 +10516,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
@@ -10153,7 +10524,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -10161,7 +10532,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
@@ -10169,7 +10540,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>28</v>
       </c>
@@ -10177,7 +10548,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
@@ -10185,12 +10556,12 @@
         <v>578</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>33</v>
       </c>
@@ -10201,7 +10572,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
@@ -10212,7 +10583,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
@@ -10223,13 +10594,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>35</v>
       </c>
@@ -10237,7 +10608,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>36</v>
       </c>
@@ -10245,7 +10616,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>42</v>
       </c>
@@ -10253,12 +10624,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
@@ -10266,7 +10637,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
@@ -10274,7 +10645,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
@@ -10282,7 +10653,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>41</v>
       </c>
@@ -10290,12 +10661,12 @@
         <v>540</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>806</v>
       </c>
@@ -10312,7 +10683,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>141</v>
       </c>
@@ -10323,7 +10694,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>140</v>
       </c>
@@ -10331,7 +10702,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>138</v>
       </c>
@@ -10339,7 +10710,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>139</v>
       </c>
@@ -10347,23 +10718,23 @@
         <v>483</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
     </row>
-    <row r="52" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="61" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B54" s="6">
         <v>2</v>
       </c>
@@ -10371,7 +10742,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B55" s="8">
         <v>3</v>
       </c>
@@ -10379,7 +10750,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="6">
         <v>4</v>
@@ -10388,45 +10759,45 @@
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>601</v>
       </c>
       <c r="B60" s="8"/>
     </row>
-    <row r="61" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>602</v>
       </c>
       <c r="B66" s="8"/>
     </row>
-    <row r="67" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>604</v>
       </c>
@@ -10440,7 +10811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10450,11 +10821,11 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57" style="3" customWidth="1"/>
-    <col min="3" max="13" width="5.7109375" customWidth="1"/>
+    <col min="3" max="13" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="21" x14ac:dyDescent="0.35">
@@ -10472,7 +10843,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>337</v>
       </c>
@@ -10508,32 +10879,32 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" s="20" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>591</v>
       </c>
@@ -10552,7 +10923,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>592</v>
       </c>
@@ -10583,7 +10954,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>593</v>
       </c>
@@ -10602,7 +10973,7 @@
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>594</v>
       </c>
@@ -10633,7 +11004,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C24" s="24"/>
       <c r="D24" s="22"/>
       <c r="E24" s="24"/>
@@ -10646,7 +11017,7 @@
       <c r="L24" s="22"/>
       <c r="M24" s="24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C25" s="25" t="s">
         <v>363</v>
       </c>
@@ -10661,7 +11032,7 @@
       <c r="L25" s="26"/>
       <c r="M25" s="27"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C26" s="28" t="s">
         <v>362</v>
       </c>
@@ -10676,7 +11047,7 @@
       <c r="L26" s="23"/>
       <c r="M26" s="29"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>348</v>
       </c>
@@ -10694,7 +11065,7 @@
       <c r="L27" s="23"/>
       <c r="M27" s="29"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>343</v>
       </c>
@@ -10712,30 +11083,30 @@
       <c r="L28" s="31"/>
       <c r="M28" s="32"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="73" orientation="portrait" r:id="rId1"/>
@@ -10743,21 +11114,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57" style="3" customWidth="1"/>
-    <col min="3" max="13" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.88671875" style="3" customWidth="1"/>
+    <col min="3" max="13" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="21" x14ac:dyDescent="0.35">
@@ -10770,302 +11141,309 @@
         <v>588</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="295.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="382.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="144" x14ac:dyDescent="0.35">
       <c r="B6" s="16" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="20" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="16"/>
+    </row>
+    <row r="8" spans="2:7" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B8" s="16" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="69" customFormat="1" ht="216" x14ac:dyDescent="0.35">
+      <c r="B9" s="16" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B10" s="16"/>
+    </row>
+    <row r="11" spans="2:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:7" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="2:7" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="2:7" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="2:7" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="2:7" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C17" s="20" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="22" spans="1:13" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>591</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="I22" s="35" t="s">
         <v>365</v>
       </c>
-      <c r="J20" s="34"/>
-      <c r="K20" s="35" t="s">
+      <c r="J22" s="34"/>
+      <c r="K22" s="35" t="s">
         <v>365</v>
       </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="35" t="s">
+      <c r="L22" s="25"/>
+      <c r="M22" s="35" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="23" spans="1:13" ht="85.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>592</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C23" s="21" t="s">
         <v>350</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="L21" s="22"/>
-      <c r="M21" s="33" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>593</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>594</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>355</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="21" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="J23" s="22"/>
+      <c r="K23" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" s="22"/>
+      <c r="M23" s="33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="88.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>593</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+    </row>
+    <row r="25" spans="1:13" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>594</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="21" t="s">
+      <c r="H25" s="22"/>
+      <c r="I25" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="21" t="s">
+      <c r="J25" s="22"/>
+      <c r="K25" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="21" t="s">
+      <c r="L25" s="22"/>
+      <c r="M25" s="21" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="24"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="24"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="25" t="s">
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C26" s="24"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="24"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C27" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="27"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="28" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C28" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="29"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C29" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="29"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="29"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C30" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="32"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+    <row r="33" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:2" ht="24.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:2" ht="24.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:2" ht="24.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:2" ht="24.9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="73" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K3" sqref="K3:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="44.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="44.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>366</v>
       </c>
@@ -11105,7 +11483,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3">
         <v>1</v>
@@ -11150,7 +11528,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4">
         <v>2</v>
@@ -11192,7 +11570,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5">
         <v>3</v>
@@ -11234,7 +11612,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6">
         <v>4</v>
@@ -11276,7 +11654,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7">
         <v>5</v>
@@ -11318,7 +11696,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8">
         <v>6</v>
@@ -11345,7 +11723,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9">
         <v>7</v>
@@ -11372,7 +11750,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10">
         <v>8</v>
@@ -11402,7 +11780,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11">
         <v>9</v>
@@ -11435,7 +11813,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12">
         <v>10</v>
@@ -11468,7 +11846,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13">
         <v>11</v>
@@ -11501,7 +11879,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="M14">
         <v>4</v>
       </c>
@@ -11509,7 +11887,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="M15">
         <v>5</v>
       </c>
@@ -11517,17 +11895,17 @@
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:14" ht="15" x14ac:dyDescent="0.25">
       <c r="N17" s="4" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="3:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M18">
         <v>1</v>
       </c>
@@ -11535,7 +11913,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>579</v>
       </c>
@@ -11552,7 +11930,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>572</v>
       </c>
@@ -11569,7 +11947,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>576</v>
       </c>
@@ -11586,7 +11964,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>584</v>
       </c>
@@ -11603,7 +11981,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>573</v>
       </c>
@@ -11614,7 +11992,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
         <v>581</v>
       </c>
@@ -11636,7 +12014,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
         <v>574</v>
       </c>
@@ -11647,7 +12025,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>582</v>
       </c>
@@ -11658,7 +12036,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
         <v>575</v>
       </c>
@@ -11669,7 +12047,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:14" ht="15" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
         <v>446</v>
       </c>
@@ -11690,36 +12068,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="87.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="87.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>829</v>
       </c>
@@ -11736,7 +12114,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>110</v>
       </c>
@@ -11753,7 +12131,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>611</v>
       </c>
@@ -11831,7 +12209,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>614</v>
       </c>
@@ -11854,7 +12232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>615</v>
       </c>
@@ -11874,7 +12252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>613</v>
       </c>
@@ -11897,7 +12275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>612</v>
       </c>
@@ -11917,7 +12295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>621</v>
       </c>
@@ -11940,7 +12318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>622</v>
       </c>
@@ -11992,7 +12370,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>607</v>
       </c>
@@ -12015,7 +12393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>620</v>
       </c>
@@ -12038,7 +12416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>619</v>
       </c>
@@ -12090,7 +12468,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>608</v>
       </c>
@@ -12110,7 +12488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>616</v>
       </c>
@@ -12133,19 +12511,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="71" t="s">
         <v>820</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="72" t="s">
         <v>372</v>
       </c>
       <c r="E21">
@@ -12168,7 +12546,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="71" t="s">
         <v>821</v>
       </c>
       <c r="C22">
@@ -12197,7 +12575,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="71" t="s">
         <v>822</v>
       </c>
       <c r="C23">
@@ -12236,7 +12614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K56"/>
   <sheetViews>
@@ -12244,29 +12622,29 @@
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="22"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" style="22"/>
     <col min="6" max="6" width="16" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -12274,7 +12652,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -12606,17 +12984,17 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -12642,7 +13020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>170</v>
       </c>
@@ -12668,7 +13046,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>171</v>
       </c>
@@ -12694,7 +13072,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>172</v>
       </c>
@@ -12717,7 +13095,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>162</v>
       </c>
@@ -12779,7 +13157,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>491</v>
       </c>
@@ -12788,7 +13166,7 @@
       </c>
       <c r="G38" s="60"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>158</v>
       </c>
@@ -12797,7 +13175,7 @@
       </c>
       <c r="G39" s="60"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>492</v>
       </c>
@@ -12805,7 +13183,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -12813,7 +13191,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>162</v>
       </c>
@@ -12821,7 +13199,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>524</v>
       </c>
@@ -12829,7 +13207,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>521</v>
       </c>
@@ -12837,7 +13215,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -12845,7 +13223,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>522</v>
       </c>
@@ -12853,7 +13231,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>523</v>
       </c>
@@ -12861,7 +13239,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>525</v>
       </c>
@@ -12869,7 +13247,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>526</v>
       </c>
@@ -12877,7 +13255,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>524</v>
       </c>
@@ -12890,18 +13268,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
